--- a/medicine/Soins infirmiers et profession infirmière/Injection_intramusculaire/Injection_intramusculaire.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Injection_intramusculaire/Injection_intramusculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie intramusculaire d'injection (IM) est utilisée en médecine pour l'administration de certains médicaments.
 Elle sert pour injecter des vaccins, certains antibiotiques, pour lutter contre les douleurs aiguës (colique néphrétique - colique hépatique) avec des antalgiques, et en psychiatrie pour injecter des neuroleptiques ou sédatifs souvent sans consentement.
@@ -525,7 +537,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vitesse de résorption est variable, mais elle est généralement très bonne (importante vascularisation des muscles). En cas de difficulté à trouver une veine, la voie intramusculaire a l'avantage d'être toujours facile à réaliser.
 </t>
@@ -556,7 +570,9 @@
           <t>Inconvénients et risques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle est un volume qui ne possède pas d'espace vide pouvant recevoir une substance supplémentaire. La quantité injectée doit donc être réduite (10 cm3 représentent déjà un gros volume).
 Le traumatisme musculaire est susceptible de provoquer un saignement difficile à interrompre. C'est une voie contre-indiquée en cas de risque hémorragique (trouble de la coagulation ou traitement anticoagulant : héparine ou coumarinique), du fait de la possibilité d'apparition d'un hématome important, parfois compressif. Les vasoconstricteurs puissants (adrénaline) peuvent provoquer une contraction intense du muscle, qui retient le produit localement, ce qui provoque des dégâts locaux.
